--- a/IPL MS/Data Set/XML/Most_Runs.xlsx
+++ b/IPL MS/Data Set/XML/Most_Runs.xlsx
@@ -45,21 +45,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> match</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> runs</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> highest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avg</t>
-  </si>
-  <si>
     <t>Virat Kohli</t>
   </si>
   <si>
@@ -88,6 +73,21 @@
   </si>
   <si>
     <t>Gautam Gambhir</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Highest</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,24 +426,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>177</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>193</v>
@@ -477,7 +477,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>188</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>126</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>159</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>125</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>190</v>
@@ -562,7 +562,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>177</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>154</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>154</v>
@@ -613,5 +613,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>